--- a/results/adult_res_presentation.xlsx
+++ b/results/adult_res_presentation.xlsx
@@ -425,6 +425,11 @@
           <t>0.750251973462735</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.52349902620941</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -457,6 +462,11 @@
           <t>0.750281812381658</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.523097509358673</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -489,6 +499,11 @@
           <t>0.724404861101322</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.503617618462432</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -553,6 +568,11 @@
           <t>0.85729893009612</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.686709586651726</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -585,6 +605,11 @@
           <t>0.857302218550889</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.685430895785219</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -617,6 +642,11 @@
           <t>0.837606397354582</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.543793091062038</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -681,6 +711,11 @@
           <t>0.999951234824903</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.997602798955674</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -713,6 +748,11 @@
           <t>0.999858485572361</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.992780558018062</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -745,6 +785,11 @@
           <t>0.947385220815734</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.565112366123322</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -809,6 +854,11 @@
           <t>0.000119052368837452</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00244539083502834</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -841,6 +891,11 @@
           <t>0.000517637879966009</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00686610421045814</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -871,6 +926,11 @@
       <c r="F16" t="inlineStr">
         <is>
           <t>0.054510924040479</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.435979947652168</t>
         </is>
       </c>
     </row>

--- a/results/adult_res_presentation.xlsx
+++ b/results/adult_res_presentation.xlsx
@@ -427,7 +427,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.52349902620941</t>
+          <t>0.628774616629339</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.523097509358673</t>
+          <t>0.628741460132487</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.503617618462432</t>
+          <t>0.57865857550302</t>
         </is>
       </c>
     </row>
@@ -536,6 +536,11 @@
           <t>0.750218815038825</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.62879119488068</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -570,7 +575,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.686709586651726</t>
+          <t>0.772078604209738</t>
         </is>
       </c>
     </row>
@@ -607,7 +612,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.685430895785219</t>
+          <t>0.772043474292561</t>
         </is>
       </c>
     </row>
@@ -644,7 +649,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.543793091062038</t>
+          <t>0.706618735429609</t>
         </is>
       </c>
     </row>
@@ -679,6 +684,11 @@
           <t>0.857277249929833</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.772092978048541</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -713,7 +723,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.997602798955674</t>
+          <t>0.999963070429966</t>
         </is>
       </c>
     </row>
@@ -750,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.992780558018062</t>
+          <t>0.999852551859602</t>
         </is>
       </c>
     </row>
@@ -787,7 +797,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.565112366123322</t>
+          <t>0.8070110951905</t>
         </is>
       </c>
     </row>
@@ -822,6 +832,11 @@
           <t>0.999906999284019</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -856,7 +871,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.00244539083502834</t>
+          <t>1.78491744756805e-05</t>
         </is>
       </c>
     </row>
@@ -893,7 +908,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.00686610421045814</t>
+          <t>0.00011605572023743</t>
         </is>
       </c>
     </row>
@@ -930,7 +945,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.435979947652168</t>
+          <t>0.191808571339018</t>
         </is>
       </c>
     </row>
@@ -963,6 +978,11 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>0.000119009823348667</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
